--- a/medicine/Psychotrope/4-AcO-DiPT/4-AcO-DiPT.xlsx
+++ b/medicine/Psychotrope/4-AcO-DiPT/4-AcO-DiPT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le 4-AcO-DiPT (ou ipracétine) est une tryptamine hallucinogène, structurellement proche de la psilocine.
@@ -512,12 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 4-AcO-DiPT fait l'objet d'un brevet de l'entreprise pharmaceutique Sandoz dès 1963. Ce brevet porte sur un ensemble de tryptamines à la structure chimique similaire : les chercheurs Albert Hofmann et Franz Troxler n'ont donc pas spécifiquement synthétisé et étudié le 4-AcO-DiPT[5].
-Au début des années 2000, il apparaît sur Internet parmi d'autres NPS, et commence à être utilisé à titre récréatif. Il reste encore, en 2017, une drogue rare même parmi les nouvelles tryptamines hallucinogènes de synthèse, moins consommée par exemple que le 4-AcO-DMT ou le 4-HO-DiPT[6],[7]. Du 4-AcO-DiPT est identifié pour la première fois en France en 2014[8].
-Statut légal
-Le 4-AcO-DiPT est une substance contrôlée au Danemark[9], au Japon[10] et en Suède[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 4-AcO-DiPT fait l'objet d'un brevet de l'entreprise pharmaceutique Sandoz dès 1963. Ce brevet porte sur un ensemble de tryptamines à la structure chimique similaire : les chercheurs Albert Hofmann et Franz Troxler n'ont donc pas spécifiquement synthétisé et étudié le 4-AcO-DiPT.
+Au début des années 2000, il apparaît sur Internet parmi d'autres NPS, et commence à être utilisé à titre récréatif. Il reste encore, en 2017, une drogue rare même parmi les nouvelles tryptamines hallucinogènes de synthèse, moins consommée par exemple que le 4-AcO-DMT ou le 4-HO-DiPT,. Du 4-AcO-DiPT est identifié pour la première fois en France en 2014.
 </t>
         </is>
       </c>
@@ -543,10 +555,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Statut légal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 4-AcO-DiPT est une substance contrôlée au Danemark, au Japon et en Suède.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4-AcO-DiPT</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/4-AcO-DiPT</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 4-AcO-DiPT est une tryptamine substituée (en), en position R4 par un groupe acétoxy (en) et en positions RN1 et RN2 par deux groupes isopropyle.
 Il a pour formule semi-développée H3C-COO-C8H5N-(CH2)2-N(CH(CH3)2)2.
@@ -554,37 +605,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4-AcO-DiPT</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/4-AcO-DiPT</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Pharmacologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'effet pharmacologique du 4-AcO-DiPT est encore mal connu, et n'a pas fait l'objet d'études (en 2017).
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -606,24 +626,162 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'effet pharmacologique du 4-AcO-DiPT est encore mal connu, et n'a pas fait l'objet d'études (en 2017).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4-AcO-DiPT</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/4-AcO-DiPT</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Effets</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La durée des effets du 4-AcO-DiPT est de 2 à 4 heures, ce qui est plus court que la grande majorité des tryptamines[4],[12].
-Effets recherchés
-modification de la perception des couleurs
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La durée des effets du 4-AcO-DiPT est de 2 à 4 heures, ce qui est plus court que la grande majorité des tryptamines,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4-AcO-DiPT</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/4-AcO-DiPT</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Effets recherchés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>modification de la perception des couleurs
 hallucinations
 hallucinations auditives
 amélioration de l'humeur, euphorie
-fous rires
-Effets secondaires
-tachycardie
+fous rires</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4-AcO-DiPT</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/4-AcO-DiPT</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>tachycardie
 nausée, vomissements
-dilatation des pupilles
-Conséquences
-Le 4-AcO-DiPT étant un NPS, ses conséquences à long terme sur la santé ne sont pas encore connues, et aucune étude n'a encore été menée sur son action pharmacologique ni sur sa toxicité.
+dilatation des pupilles</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4-AcO-DiPT</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/4-AcO-DiPT</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Conséquences</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 4-AcO-DiPT étant un NPS, ses conséquences à long terme sur la santé ne sont pas encore connues, et aucune étude n'a encore été menée sur son action pharmacologique ni sur sa toxicité.
 </t>
         </is>
       </c>
